--- a/CM70_TestData_ManuallyCreateBankAccountStatement_21C.xlsx
+++ b/CM70_TestData_ManuallyCreateBankAccountStatement_21C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Cash Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2201765-AFF5-4B95-9962-10E2179186F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C529A68-0F8C-4A84-94F3-EE9E23A1FF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>UserName</t>
   </si>
@@ -106,15 +106,6 @@
   </si>
   <si>
     <t>USD - US Dollar</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>Chase_US_Acct</t>
@@ -627,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="Y2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -659,28 +650,28 @@
   <sheetData>
     <row r="1" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -722,10 +713,10 @@
         <v>15</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X1" s="11"/>
       <c r="Y1" s="11" t="s">
@@ -770,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N2" s="3">
         <v>150</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>17</v>
@@ -809,23 +800,14 @@
         <v>642815</v>
       </c>
       <c r="X2" s="3"/>
-      <c r="Y2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{AF8E040E-E248-4815-B1DD-D878C8C67CE1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
